--- a/laporan keuangan.xlsx
+++ b/laporan keuangan.xlsx
@@ -13,8 +13,9 @@
     <sheet name="DUMMY-ANGSURAN" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANGSURAN!$C$5:$N$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANGSURAN!$C$8:$N$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">L_PERBULAN!$B$12:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ANGSURAN!$C$5:$N$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">L_PERBULAN!$B$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -109,8 +110,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>LODI</author>
+  </authors>
+  <commentList>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ANGSURAN JUMLAH HASIL BAGI SISA
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>tobing</t>
   </si>
@@ -283,25 +308,88 @@
     <t>UDIN</t>
   </si>
   <si>
-    <t>ANGSURAN TERAKHIR</t>
-  </si>
-  <si>
     <t>TOTAL ANGSURAN PER BULAN(DIBULATKAN)</t>
   </si>
   <si>
     <t>TOTAL ANGSURAN</t>
   </si>
   <si>
-    <t>TATA</t>
+    <t>DAFTAR ANGSURAN</t>
   </si>
   <si>
-    <t>ENDUL</t>
+    <t>TOBING</t>
   </si>
   <si>
-    <t>YOPAJ</t>
+    <t>ANGSURAN TERKECIL</t>
   </si>
   <si>
-    <t>DAFTAR ANGSURAN</t>
+    <t>ALEN</t>
+  </si>
+  <si>
+    <t>WAJIB</t>
+  </si>
+  <si>
+    <t>TIDAK</t>
+  </si>
+  <si>
+    <t>HIDE</t>
+  </si>
+  <si>
+    <t>ZAKIYAH</t>
+  </si>
+  <si>
+    <t>SUTIDIYANTI/REZA LAS</t>
+  </si>
+  <si>
+    <t>RANGGA</t>
+  </si>
+  <si>
+    <t>RIYANTO</t>
+  </si>
+  <si>
+    <t>SUGIH</t>
+  </si>
+  <si>
+    <t>IYAM</t>
+  </si>
+  <si>
+    <t>SATIRI</t>
+  </si>
+  <si>
+    <t>RAY ASEP</t>
+  </si>
+  <si>
+    <t>TIAS</t>
+  </si>
+  <si>
+    <t>AKBAR</t>
+  </si>
+  <si>
+    <t>JAYA</t>
+  </si>
+  <si>
+    <t>ABDULAH</t>
+  </si>
+  <si>
+    <t>MILYANTO</t>
+  </si>
+  <si>
+    <t>SURYA GUNAWAN</t>
+  </si>
+  <si>
+    <t>PEYANG</t>
+  </si>
+  <si>
+    <t>ICAH</t>
+  </si>
+  <si>
+    <t>IBU ZAKIYAH</t>
+  </si>
+  <si>
+    <t>BPK TIAS</t>
+  </si>
+  <si>
+    <t>BPK SOBARI MULYA</t>
   </si>
 </sst>
 </file>
@@ -312,9 +400,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="[$IDR]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="[$IDR]\ #,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +452,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +535,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,10 +859,69 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,65 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,12 +972,1544 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="351">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2488,25 +4126,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="8">
         <f ca="1">TODAY()</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="E1"/>
       <c r="L1"/>
     </row>
     <row r="2" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="9">
         <f ca="1">TODAY()</f>
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="11" t="s">
@@ -2516,99 +4154,99 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2022</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">TODAY()+1</f>
-        <v>44829</v>
+        <v>44836</v>
       </c>
       <c r="E3"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="9">
         <f ca="1">TODAY()+2</f>
-        <v>44830</v>
+        <v>44837</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="34"/>
+      <c r="J4" s="57"/>
       <c r="K4"/>
       <c r="L4"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="9">
         <f ca="1">TODAY()+3</f>
-        <v>44831</v>
+        <v>44838</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="59"/>
       <c r="K5"/>
       <c r="L5"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="10">
         <f ca="1">TODAY()+1</f>
-        <v>44829</v>
+        <v>44836</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="61"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="10">
         <f t="shared" ref="D7" ca="1" si="0">TODAY()+2</f>
-        <v>44830</v>
+        <v>44837</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="63"/>
       <c r="K7"/>
       <c r="L7"/>
     </row>
@@ -2656,68 +4294,68 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="str">
@@ -2776,7 +4414,7 @@
       </c>
       <c r="Q14" s="21" t="str">
         <f ca="1">IF(H:H=TODAY()+1,"TMX","-")</f>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R14" s="21" t="str">
         <f ca="1">IF(H:H=TODAY()+2,"TMX","-")</f>
@@ -3148,7 +4786,7 @@
       </c>
       <c r="N20" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MT</v>
+        <v>-</v>
       </c>
       <c r="O20" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3224,7 +4862,7 @@
       </c>
       <c r="Q21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R21" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3288,7 +4926,7 @@
       </c>
       <c r="Q22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R22" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3416,7 +5054,7 @@
       </c>
       <c r="Q24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R24" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3480,7 +5118,7 @@
       </c>
       <c r="Q25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R25" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3608,7 +5246,7 @@
       </c>
       <c r="Q27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R27" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3672,7 +5310,7 @@
       </c>
       <c r="Q28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>TMX</v>
+        <v>-</v>
       </c>
       <c r="R28" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3941,20 +5579,6 @@
   </sheetData>
   <autoFilter ref="B12:H32"/>
   <mergeCells count="24">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="M12:R13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="I2:J2"/>
@@ -3965,33 +5589,47 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:R32">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="350" priority="1">
       <formula>$L14="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="2">
+    <cfRule type="expression" dxfId="349" priority="2">
       <formula>$L14="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="3">
+    <cfRule type="expression" dxfId="348" priority="3">
       <formula>$P14="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="4">
+    <cfRule type="expression" dxfId="347" priority="4">
       <formula>$O14="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="5">
+    <cfRule type="expression" dxfId="346" priority="5">
       <formula>$N14="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="6">
+    <cfRule type="expression" dxfId="345" priority="6">
       <formula>$M14="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="7">
+    <cfRule type="expression" dxfId="344" priority="7">
       <formula>$Q14="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="8">
+    <cfRule type="expression" dxfId="343" priority="8">
       <formula>$R14="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="9">
+    <cfRule type="expression" dxfId="342" priority="9">
       <formula>$L14="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4002,20 +5640,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AA20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="30" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="32.42578125" hidden="1" customWidth="1"/>
@@ -4027,1168 +5668,2061 @@
     <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="64" t="s">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-    </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C5" s="54" t="s">
+      <c r="D3" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D8" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E8" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F8" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H8" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J8" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K8" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C6" s="56" t="str">
+      <c r="N8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="str">
         <f>TEXT(ROW(A1),"000")</f>
         <v>001</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F6" s="57">
-        <v>2100000</v>
-      </c>
-      <c r="G6" s="58">
-        <f>SUM(((1/100)*F6)*1)</f>
-        <v>21000</v>
-      </c>
-      <c r="H6" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I6" s="60">
-        <f>SUM(E6/F6)</f>
+      <c r="D9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="37">
+        <v>15000000</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1050000</v>
+      </c>
+      <c r="G9" s="38">
+        <f>SUM(((1/100)*F9)*1)</f>
+        <v>10500</v>
+      </c>
+      <c r="H9" s="39">
+        <v>44837</v>
+      </c>
+      <c r="I9" s="40">
+        <f>SUM(E9/F9)</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="J6" s="61">
-        <f>IF(L6=0,I6,I6+1)</f>
+      <c r="J9" s="41">
+        <f>IF(L9=0,I9,I9+1)</f>
         <v>15.285714285714286</v>
       </c>
-      <c r="K6" s="62">
-        <f>ROUND(J6,0)</f>
+      <c r="K9" s="42">
+        <f>ROUND(J9,0)</f>
         <v>15</v>
       </c>
-      <c r="L6" s="58">
-        <f>MOD(E6,F6)</f>
-        <v>600000</v>
-      </c>
-      <c r="M6" s="62" t="str">
-        <f>K6&amp;" "&amp;"Bulan"</f>
+      <c r="L9" s="38">
+        <f>MOD(E9,F9)</f>
+        <v>300000</v>
+      </c>
+      <c r="M9" s="42" t="str">
+        <f>K9&amp;" "&amp;"Bulan"</f>
         <v>15 Bulan</v>
       </c>
-      <c r="N6" s="63">
-        <f>IF(MOD(E6,F6)&gt;1,MOD(E6,F6),F6)</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C7" s="56" t="str">
-        <f t="shared" ref="C7:C18" si="0">TEXT(ROW(A2),"000")</f>
-        <v>002</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F7" s="57">
-        <v>5000000</v>
-      </c>
-      <c r="G7" s="58">
-        <f>SUM(((1/100)*F7)*1)</f>
-        <v>50000</v>
-      </c>
-      <c r="H7" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I7" s="60">
-        <f>SUM(E7/F7)</f>
-        <v>6</v>
-      </c>
-      <c r="J7" s="61">
-        <f>IF(L7=0,I7,I7+1)</f>
-        <v>6</v>
-      </c>
-      <c r="K7" s="62">
-        <f t="shared" ref="K7:K19" si="1">ROUND(J7,0)</f>
-        <v>6</v>
-      </c>
-      <c r="L7" s="58">
-        <f>MOD(E7,F7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="62" t="str">
-        <f t="shared" ref="M7:M19" si="2">K7&amp;" "&amp;"Bulan"</f>
-        <v>6 Bulan</v>
-      </c>
-      <c r="N7" s="63">
-        <f>IF(MOD(E7,F7)&gt;1,MOD(E7,F7),F7)</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C8" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>003</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="57">
-        <v>45000000</v>
-      </c>
-      <c r="F8" s="57">
-        <v>5000000</v>
-      </c>
-      <c r="G8" s="58">
-        <f t="shared" ref="G8:G19" si="3">SUM(((1/100)*F8)*1)</f>
-        <v>50000</v>
-      </c>
-      <c r="H8" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I8" s="60">
-        <f t="shared" ref="I8:I19" si="4">SUM(E8/F8)</f>
-        <v>9</v>
-      </c>
-      <c r="J8" s="61">
-        <f>IF(L8=0,I8,I8+1)</f>
-        <v>9</v>
-      </c>
-      <c r="K8" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L8" s="58">
-        <f t="shared" ref="L8:L19" si="5">MOD(E8,F8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>9 Bulan</v>
-      </c>
-      <c r="N8" s="63">
-        <f>IF(MOD(E8,F8)&gt;1,MOD(E8,F8),F8)</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C9" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>004</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F9" s="57">
-        <v>900000</v>
-      </c>
-      <c r="G9" s="58">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="H9" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I9" s="60">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="J9" s="61">
-        <f>IF(L9=0,I9,I9+1)</f>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="K9" s="62">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="L9" s="58">
-        <f t="shared" si="5"/>
-        <v>300000</v>
-      </c>
-      <c r="M9" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>34 Bulan</v>
-      </c>
-      <c r="N9" s="63">
+      <c r="N9" s="43">
         <f>IF(MOD(E9,F9)&gt;1,MOD(E9,F9),F9)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C10" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>005</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F10" s="57">
-        <v>2100000</v>
-      </c>
-      <c r="G10" s="58">
+      <c r="C10" s="36" t="str">
+        <f>TEXT(ROW(A2),"000")</f>
+        <v>002</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="37">
+        <v>15000000</v>
+      </c>
+      <c r="F10" s="37">
+        <v>1050000</v>
+      </c>
+      <c r="G10" s="38">
         <f>SUM(((1/100)*F10)*1)</f>
-        <v>21000</v>
-      </c>
-      <c r="H10" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I10" s="60">
-        <f t="shared" si="4"/>
+        <v>10500</v>
+      </c>
+      <c r="H10" s="39">
+        <v>44839</v>
+      </c>
+      <c r="I10" s="40">
+        <f>SUM(E10/F10)</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="41">
         <f>IF(L10=0,I10,I10+1)</f>
         <v>15.285714285714286</v>
       </c>
-      <c r="K10" s="62">
-        <f t="shared" si="1"/>
+      <c r="K10" s="42">
+        <f>ROUND(J10,0)</f>
         <v>15</v>
       </c>
-      <c r="L10" s="58">
-        <f t="shared" si="5"/>
+      <c r="L10" s="38">
+        <f>MOD(E10,F10)</f>
+        <v>300000</v>
+      </c>
+      <c r="M10" s="42" t="str">
+        <f>K10&amp;" "&amp;"Bulan"</f>
+        <v>15 Bulan</v>
+      </c>
+      <c r="N10" s="43">
+        <f>IF(MOD(E10,F10)&gt;1,MOD(E10,F10),F10)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="36" t="str">
+        <f>TEXT(ROW(A3),"000")</f>
+        <v>003</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="37">
+        <v>50000000</v>
+      </c>
+      <c r="F11" s="37">
+        <v>3000000</v>
+      </c>
+      <c r="G11" s="38">
+        <f>SUM(((1/100)*F11)*1)</f>
+        <v>30000</v>
+      </c>
+      <c r="H11" s="39">
+        <v>44839</v>
+      </c>
+      <c r="I11" s="40">
+        <f>SUM(E11/F11)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J11" s="41">
+        <f>IF(L11=0,I11,I11+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K11" s="42">
+        <f>ROUND(J11,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L11" s="38">
+        <f>MOD(E11,F11)</f>
+        <v>2000000</v>
+      </c>
+      <c r="M11" s="42" t="str">
+        <f>K11&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N11" s="43">
+        <f>IF(MOD(E11,F11)&gt;1,MOD(E11,F11),F11)</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="36" t="str">
+        <f>TEXT(ROW(A4),"000")</f>
+        <v>004</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="37">
+        <v>15000000</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1050000</v>
+      </c>
+      <c r="G12" s="38">
+        <f>SUM(((1/100)*F12)*1)</f>
+        <v>10500</v>
+      </c>
+      <c r="H12" s="39">
+        <v>44840</v>
+      </c>
+      <c r="I12" s="40">
+        <f>SUM(E12/F12)</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J12" s="41">
+        <f>IF(L12=0,I12,I12+1)</f>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="K12" s="42">
+        <f>ROUND(J12,0)</f>
+        <v>15</v>
+      </c>
+      <c r="L12" s="38">
+        <f>MOD(E12,F12)</f>
+        <v>300000</v>
+      </c>
+      <c r="M12" s="42" t="str">
+        <f>K12&amp;" "&amp;"Bulan"</f>
+        <v>15 Bulan</v>
+      </c>
+      <c r="N12" s="43">
+        <f>IF(MOD(E12,F12)&gt;1,MOD(E12,F12),F12)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C13" s="36" t="str">
+        <f>TEXT(ROW(A5),"000")</f>
+        <v>005</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="37">
+        <v>15000000</v>
+      </c>
+      <c r="F13" s="37">
+        <v>900000</v>
+      </c>
+      <c r="G13" s="38">
+        <f>SUM(((1/100)*F13)*1)</f>
+        <v>9000</v>
+      </c>
+      <c r="H13" s="39">
+        <v>44841</v>
+      </c>
+      <c r="I13" s="40">
+        <f>SUM(E13/F13)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J13" s="41">
+        <f>IF(L13=0,I13,I13+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K13" s="42">
+        <f>ROUND(J13,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L13" s="38">
+        <f>MOD(E13,F13)</f>
         <v>600000</v>
       </c>
-      <c r="M10" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>15 Bulan</v>
-      </c>
-      <c r="N10" s="63">
-        <f>IF(MOD(E10,F10)&gt;1,MOD(E10,F10),F10)</f>
+      <c r="M13" s="42" t="str">
+        <f>K13&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N13" s="43">
+        <f>IF(MOD(E13,F13)&gt;1,MOD(E13,F13),F13)</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C11" s="56" t="str">
-        <f t="shared" si="0"/>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C14" s="36" t="str">
+        <f>TEXT(ROW(A6),"000")</f>
         <v>006</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="57">
+      <c r="D14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="37">
         <v>30000000</v>
       </c>
-      <c r="F11" s="57">
-        <v>5000000</v>
-      </c>
-      <c r="G11" s="58">
-        <f>SUM(((1/100)*F11)*1)</f>
-        <v>50000</v>
-      </c>
-      <c r="H11" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I11" s="60">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J11" s="61">
-        <f>IF(L11=0,I11,I11+1)</f>
-        <v>6</v>
-      </c>
-      <c r="K11" s="62">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L11" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>6 Bulan</v>
-      </c>
-      <c r="N11" s="63">
-        <f>IF(MOD(E11,F11)&gt;1,MOD(E11,F11),F11)</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C12" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>007</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="57">
-        <v>45000000</v>
-      </c>
-      <c r="F12" s="57">
-        <v>5000000</v>
-      </c>
-      <c r="G12" s="58">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="H12" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I12" s="60">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J12" s="61">
-        <f>IF(L12=0,I12,I12+1)</f>
-        <v>9</v>
-      </c>
-      <c r="K12" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L12" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>9 Bulan</v>
-      </c>
-      <c r="N12" s="63">
-        <f>IF(MOD(E12,F12)&gt;1,MOD(E12,F12),F12)</f>
-        <v>5000000</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C13" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>008</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F13" s="57">
-        <v>900000</v>
-      </c>
-      <c r="G13" s="58">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="H13" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I13" s="60">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="J13" s="61">
-        <f>IF(L13=0,I13,I13+1)</f>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="K13" s="62">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="L13" s="58">
-        <f t="shared" si="5"/>
-        <v>300000</v>
-      </c>
-      <c r="M13" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>34 Bulan</v>
-      </c>
-      <c r="N13" s="63">
-        <f>IF(MOD(E13,F13)&gt;1,MOD(E13,F13),F13)</f>
-        <v>300000</v>
-      </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C14" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>009</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F14" s="57">
+      <c r="F14" s="37">
         <v>2100000</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="38">
         <f>SUM(((1/100)*F14)*1)</f>
         <v>21000</v>
       </c>
-      <c r="H14" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I14" s="60">
-        <f t="shared" si="4"/>
+      <c r="H14" s="39">
+        <v>44841</v>
+      </c>
+      <c r="I14" s="40">
+        <f>SUM(E14/F14)</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="41">
         <f>IF(L14=0,I14,I14+1)</f>
         <v>15.285714285714286</v>
       </c>
-      <c r="K14" s="62">
-        <f t="shared" si="1"/>
+      <c r="K14" s="42">
+        <f>ROUND(J14,0)</f>
         <v>15</v>
       </c>
-      <c r="L14" s="58">
-        <f t="shared" si="5"/>
+      <c r="L14" s="38">
+        <f>MOD(E14,F14)</f>
         <v>600000</v>
       </c>
-      <c r="M14" s="62" t="str">
-        <f t="shared" si="2"/>
+      <c r="M14" s="42" t="str">
+        <f>K14&amp;" "&amp;"Bulan"</f>
         <v>15 Bulan</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="43">
         <f>IF(MOD(E14,F14)&gt;1,MOD(E14,F14),F14)</f>
         <v>600000</v>
       </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C15" s="56" t="str">
-        <f t="shared" si="0"/>
+      <c r="C15" s="36" t="str">
+        <f>TEXT(ROW(A7),"000")</f>
+        <v>007</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="37">
+        <v>10000000</v>
+      </c>
+      <c r="F15" s="37">
+        <v>650000</v>
+      </c>
+      <c r="G15" s="38">
+        <f>SUM(((1/100)*F15)*1)</f>
+        <v>6500</v>
+      </c>
+      <c r="H15" s="39">
+        <v>44841</v>
+      </c>
+      <c r="I15" s="40">
+        <f>SUM(E15/F15)</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J15" s="41">
+        <f>IF(L15=0,I15,I15+1)</f>
+        <v>16.384615384615387</v>
+      </c>
+      <c r="K15" s="42">
+        <f>ROUND(J15,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L15" s="38">
+        <f>MOD(E15,F15)</f>
+        <v>250000</v>
+      </c>
+      <c r="M15" s="42" t="str">
+        <f>K15&amp;" "&amp;"Bulan"</f>
+        <v>16 Bulan</v>
+      </c>
+      <c r="N15" s="43">
+        <f>IF(MOD(E15,F15)&gt;1,MOD(E15,F15),F15)</f>
+        <v>250000</v>
+      </c>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="36" t="str">
+        <f>TEXT(ROW(A8),"000")</f>
+        <v>008</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="37">
+        <v>40000000</v>
+      </c>
+      <c r="F16" s="37">
+        <v>2400000</v>
+      </c>
+      <c r="G16" s="38">
+        <f>SUM(((1/100)*F16)*1)</f>
+        <v>24000</v>
+      </c>
+      <c r="H16" s="39">
+        <v>44842</v>
+      </c>
+      <c r="I16" s="40">
+        <f>SUM(E16/F16)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J16" s="41">
+        <f>IF(L16=0,I16,I16+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K16" s="42">
+        <f>ROUND(J16,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L16" s="38">
+        <f>MOD(E16,F16)</f>
+        <v>1600000</v>
+      </c>
+      <c r="M16" s="42" t="str">
+        <f>K16&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N16" s="43">
+        <f>IF(MOD(E16,F16)&gt;1,MOD(E16,F16),F16)</f>
+        <v>1600000</v>
+      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C17" s="36" t="str">
+        <f>TEXT(ROW(A9),"000")</f>
+        <v>009</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="37">
+        <v>85000000</v>
+      </c>
+      <c r="F17" s="37">
+        <v>4500000</v>
+      </c>
+      <c r="G17" s="38">
+        <f>SUM(((1/100)*F17)*1)</f>
+        <v>45000</v>
+      </c>
+      <c r="H17" s="39">
+        <v>44844</v>
+      </c>
+      <c r="I17" s="40">
+        <f>SUM(E17/F17)</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="J17" s="41">
+        <f>IF(L17=0,I17,I17+1)</f>
+        <v>19.888888888888889</v>
+      </c>
+      <c r="K17" s="42">
+        <f>ROUND(J17,0)</f>
+        <v>20</v>
+      </c>
+      <c r="L17" s="38">
+        <f>MOD(E17,F17)</f>
+        <v>4000000</v>
+      </c>
+      <c r="M17" s="42" t="str">
+        <f>K17&amp;" "&amp;"Bulan"</f>
+        <v>20 Bulan</v>
+      </c>
+      <c r="N17" s="43">
+        <f>IF(MOD(E17,F17)&gt;1,MOD(E17,F17),F17)</f>
+        <v>4000000</v>
+      </c>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="36" t="str">
+        <f>TEXT(ROW(A10),"000")</f>
         <v>010</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F15" s="57">
+      <c r="D18" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="37">
+        <v>40000000</v>
+      </c>
+      <c r="F18" s="37">
+        <v>2800000</v>
+      </c>
+      <c r="G18" s="38">
+        <f>SUM(((1/100)*F18)*1)</f>
+        <v>28000</v>
+      </c>
+      <c r="H18" s="39">
+        <v>44852</v>
+      </c>
+      <c r="I18" s="40">
+        <f>SUM(E18/F18)</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J18" s="41">
+        <f>IF(L18=0,I18,I18+1)</f>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="K18" s="42">
+        <f>ROUND(J18,0)</f>
+        <v>15</v>
+      </c>
+      <c r="L18" s="38">
+        <f>MOD(E18,F18)</f>
+        <v>800000</v>
+      </c>
+      <c r="M18" s="42" t="str">
+        <f>K18&amp;" "&amp;"Bulan"</f>
+        <v>15 Bulan</v>
+      </c>
+      <c r="N18" s="43">
+        <f>IF(MOD(E18,F18)&gt;1,MOD(E18,F18),F18)</f>
+        <v>800000</v>
+      </c>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19" s="36" t="str">
+        <f>TEXT(ROW(A11),"000")</f>
+        <v>011</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="37">
+        <v>50000000</v>
+      </c>
+      <c r="F19" s="37">
+        <v>3000000</v>
+      </c>
+      <c r="G19" s="38">
+        <f>SUM(((1/100)*F19)*1)</f>
+        <v>30000</v>
+      </c>
+      <c r="H19" s="39">
+        <v>44854</v>
+      </c>
+      <c r="I19" s="40">
+        <f>SUM(E19/F19)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J19" s="41">
+        <f>IF(L19=0,I19,I19+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K19" s="42">
+        <f>ROUND(J19,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L19" s="38">
+        <f>MOD(E19,F19)</f>
+        <v>2000000</v>
+      </c>
+      <c r="M19" s="42" t="str">
+        <f>K19&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N19" s="43">
+        <f>IF(MOD(E19,F19)&gt;1,MOD(E19,F19),F19)</f>
+        <v>2000000</v>
+      </c>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="36" t="str">
+        <f>TEXT(ROW(A12),"000")</f>
+        <v>012</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="37">
         <v>5000000</v>
       </c>
-      <c r="G15" s="58">
-        <f>SUM(((1/100)*F15)*1)</f>
-        <v>50000</v>
-      </c>
-      <c r="H15" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I15" s="60">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J15" s="61">
-        <f>IF(L15=0,I15,I15+1)</f>
-        <v>6</v>
-      </c>
-      <c r="K15" s="62">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L15" s="58">
-        <f t="shared" si="5"/>
+      <c r="F20" s="37">
+        <v>500000</v>
+      </c>
+      <c r="G20" s="38">
+        <f>SUM(((1/100)*F20)*1)</f>
+        <v>5000</v>
+      </c>
+      <c r="H20" s="39">
+        <v>44857</v>
+      </c>
+      <c r="I20" s="40">
+        <f>SUM(E20/F20)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="41">
+        <f>IF(L20=0,I20,I20+1)</f>
+        <v>10</v>
+      </c>
+      <c r="K20" s="42">
+        <f>ROUND(J20,0)</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="38">
+        <f>MOD(E20,F20)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>6 Bulan</v>
-      </c>
-      <c r="N15" s="63">
-        <f>IF(MOD(E15,F15)&gt;1,MOD(E15,F15),F15)</f>
-        <v>5000000</v>
-      </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C16" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>011</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="57">
-        <v>45000000</v>
-      </c>
-      <c r="F16" s="57">
-        <v>5000000</v>
-      </c>
-      <c r="G16" s="58">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="H16" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I16" s="60">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J16" s="61">
-        <f>IF(L16=0,I16,I16+1)</f>
-        <v>9</v>
-      </c>
-      <c r="K16" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L16" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>9 Bulan</v>
-      </c>
-      <c r="N16" s="63">
-        <f>IF(MOD(E16,F16)&gt;1,MOD(E16,F16),F16)</f>
-        <v>5000000</v>
-      </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C17" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>012</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="57">
-        <v>30000000</v>
-      </c>
-      <c r="F17" s="57">
-        <v>900000</v>
-      </c>
-      <c r="G17" s="58">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="H17" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I17" s="60">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="J17" s="61">
-        <f>IF(L17=0,I17,I17+1)</f>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="K17" s="62">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="L17" s="58">
-        <f t="shared" si="5"/>
-        <v>300000</v>
-      </c>
-      <c r="M17" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>34 Bulan</v>
-      </c>
-      <c r="N17" s="63">
-        <f>IF(MOD(E17,F17)&gt;1,MOD(E17,F17),F17)</f>
-        <v>300000</v>
-      </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C18" s="56" t="str">
-        <f t="shared" si="0"/>
+      <c r="M20" s="42" t="str">
+        <f>K20&amp;" "&amp;"Bulan"</f>
+        <v>10 Bulan</v>
+      </c>
+      <c r="N20" s="43">
+        <f>IF(MOD(E20,F20)&gt;1,MOD(E20,F20),F20)</f>
+        <v>500000</v>
+      </c>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C21" s="36" t="str">
+        <f>TEXT(ROW(A13),"000")</f>
         <v>013</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="57">
-        <v>45000000</v>
-      </c>
-      <c r="F18" s="57">
-        <v>5000000</v>
-      </c>
-      <c r="G18" s="58">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="H18" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I18" s="60">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J18" s="61">
-        <f>IF(L18=0,I18,I18+1)</f>
-        <v>9</v>
-      </c>
-      <c r="K18" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L18" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>9 Bulan</v>
-      </c>
-      <c r="N18" s="63">
-        <f>IF(MOD(E18,F18)&gt;1,MOD(E18,F18),F18)</f>
-        <v>5000000</v>
-      </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C19" s="56" t="str">
+      <c r="D21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="37">
+        <v>60000000</v>
+      </c>
+      <c r="F21" s="37">
+        <v>3600000</v>
+      </c>
+      <c r="G21" s="38">
+        <f>SUM(((1/100)*F21)*1)</f>
+        <v>36000</v>
+      </c>
+      <c r="H21" s="39">
+        <v>44859</v>
+      </c>
+      <c r="I21" s="40">
+        <f>SUM(E21/F21)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J21" s="41">
+        <f>IF(L21=0,I21,I21+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K21" s="42">
+        <f>ROUND(J21,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L21" s="38">
+        <f>MOD(E21,F21)</f>
+        <v>2400000</v>
+      </c>
+      <c r="M21" s="42" t="str">
+        <f>K21&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N21" s="43">
+        <f>IF(MOD(E21,F21)&gt;1,MOD(E21,F21),F21)</f>
+        <v>2400000</v>
+      </c>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C22" s="36" t="str">
         <f>TEXT(ROW(A14),"000")</f>
         <v>014</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="57">
+      <c r="D22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="37">
+        <v>10000000</v>
+      </c>
+      <c r="F22" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="G22" s="38">
+        <f>SUM(((1/100)*F22)*1)</f>
+        <v>10000</v>
+      </c>
+      <c r="H22" s="39">
+        <v>44860</v>
+      </c>
+      <c r="I22" s="40">
+        <f>SUM(E22/F22)</f>
+        <v>10</v>
+      </c>
+      <c r="J22" s="41">
+        <f>IF(L22=0,I22,I22+1)</f>
+        <v>10</v>
+      </c>
+      <c r="K22" s="42">
+        <f>ROUND(J22,0)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="38">
+        <f>MOD(E22,F22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="42" t="str">
+        <f>K22&amp;" "&amp;"Bulan"</f>
+        <v>10 Bulan</v>
+      </c>
+      <c r="N22" s="43">
+        <f>IF(MOD(E22,F22)&gt;1,MOD(E22,F22),F22)</f>
+        <v>1000000</v>
+      </c>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C23" s="36" t="str">
+        <f>TEXT(ROW(A15),"000")</f>
+        <v>015</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="37">
         <v>30000000</v>
       </c>
-      <c r="F19" s="57">
-        <v>900000</v>
-      </c>
-      <c r="G19" s="58">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="H19" s="59">
-        <v>44827</v>
-      </c>
-      <c r="I19" s="60">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="J19" s="61">
-        <f>IF(L19=0,I19,I19+1)</f>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="K19" s="62">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="L19" s="58">
-        <f t="shared" si="5"/>
-        <v>300000</v>
-      </c>
-      <c r="M19" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>34 Bulan</v>
-      </c>
-      <c r="N19" s="63">
-        <f>IF(MOD(E19,F19)&gt;1,MOD(E19,F19),F19)</f>
-        <v>300000</v>
-      </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="F23" s="37">
+        <v>1800000</v>
+      </c>
+      <c r="G23" s="38">
+        <f>SUM(((1/100)*F23)*1)</f>
+        <v>18000</v>
+      </c>
+      <c r="H23" s="39">
+        <v>44860</v>
+      </c>
+      <c r="I23" s="40">
+        <f>SUM(E23/F23)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J23" s="41">
+        <f>IF(L23=0,I23,I23+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K23" s="42">
+        <f>ROUND(J23,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L23" s="38">
+        <f>MOD(E23,F23)</f>
+        <v>1200000</v>
+      </c>
+      <c r="M23" s="42" t="str">
+        <f>K23&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N23" s="43">
+        <f>IF(MOD(E23,F23)&gt;1,MOD(E23,F23),F23)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="36" t="str">
+        <f>TEXT(ROW(A16),"000")</f>
+        <v>016</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="37">
+        <v>30000000</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1950000</v>
+      </c>
+      <c r="G24" s="38">
+        <f>SUM(((1/100)*F24)*1)</f>
+        <v>19500</v>
+      </c>
+      <c r="H24" s="39">
+        <v>44863</v>
+      </c>
+      <c r="I24" s="40">
+        <f>SUM(E24/F24)</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J24" s="41">
+        <f>IF(L24=0,I24,I24+1)</f>
+        <v>16.384615384615387</v>
+      </c>
+      <c r="K24" s="42">
+        <f>ROUND(J24,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L24" s="38">
+        <f>MOD(E24,F24)</f>
+        <v>750000</v>
+      </c>
+      <c r="M24" s="42" t="str">
+        <f>K24&amp;" "&amp;"Bulan"</f>
+        <v>16 Bulan</v>
+      </c>
+      <c r="N24" s="43">
+        <f>IF(MOD(E24,F24)&gt;1,MOD(E24,F24),F24)</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="36" t="str">
+        <f>TEXT(ROW(A17),"000")</f>
+        <v>017</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="37">
+        <v>20000000</v>
+      </c>
+      <c r="F25" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="G25" s="38">
+        <f>SUM(((1/100)*F25)*1)</f>
+        <v>12000</v>
+      </c>
+      <c r="H25" s="39">
+        <v>44863</v>
+      </c>
+      <c r="I25" s="40">
+        <f>SUM(E25/F25)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J25" s="41">
+        <f>IF(L25=0,I25,I25+1)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K25" s="42">
+        <f>ROUND(J25,0)</f>
+        <v>18</v>
+      </c>
+      <c r="L25" s="38">
+        <f>MOD(E25,F25)</f>
+        <v>800000</v>
+      </c>
+      <c r="M25" s="42" t="str">
+        <f>K25&amp;" "&amp;"Bulan"</f>
+        <v>18 Bulan</v>
+      </c>
+      <c r="N25" s="43">
+        <f>IF(MOD(E25,F25)&gt;1,MOD(E25,F25),F25)</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="36" t="str">
+        <f>TEXT(ROW(A18),"000")</f>
+        <v>018</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="37">
+        <v>20000000</v>
+      </c>
+      <c r="F26" s="37">
+        <v>1400000</v>
+      </c>
+      <c r="G26" s="38">
+        <f>SUM(((1/100)*F26)*1)</f>
+        <v>14000</v>
+      </c>
+      <c r="H26" s="39">
+        <v>44863</v>
+      </c>
+      <c r="I26" s="40">
+        <f>SUM(E26/F26)</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J26" s="41">
+        <f>IF(L26=0,I26,I26+1)</f>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="K26" s="42">
+        <f>ROUND(J26,0)</f>
+        <v>15</v>
+      </c>
+      <c r="L26" s="38">
+        <f>MOD(E26,F26)</f>
+        <v>400000</v>
+      </c>
+      <c r="M26" s="42" t="str">
+        <f>K26&amp;" "&amp;"Bulan"</f>
+        <v>15 Bulan</v>
+      </c>
+      <c r="N26" s="43">
+        <f>IF(MOD(E26,F26)&gt;1,MOD(E26,F26),F26)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27" s="36" t="str">
+        <f>TEXT(ROW(A19),"000")</f>
+        <v>019</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="37">
+        <v>30000000</v>
+      </c>
+      <c r="F27" s="37">
+        <v>2100000</v>
+      </c>
+      <c r="G27" s="38">
+        <f>SUM(((1/100)*F27)*1)</f>
+        <v>21000</v>
+      </c>
+      <c r="H27" s="39">
+        <v>44863</v>
+      </c>
+      <c r="I27" s="40">
+        <f>SUM(E27/F27)</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J27" s="41">
+        <f>IF(L27=0,I27,I27+1)</f>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="K27" s="42">
+        <f>ROUND(J27,0)</f>
+        <v>15</v>
+      </c>
+      <c r="L27" s="38">
+        <f>MOD(E27,F27)</f>
+        <v>600000</v>
+      </c>
+      <c r="M27" s="42" t="str">
+        <f>K27&amp;" "&amp;"Bulan"</f>
+        <v>15 Bulan</v>
+      </c>
+      <c r="N27" s="43">
+        <f>IF(MOD(E27,F27)&gt;1,MOD(E27,F27),F27)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="68" t="str">
+        <f>TEXT(ROW(A20),"000")</f>
+        <v>020</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="75">
+        <v>30000000</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="76" t="e">
+        <f>SUM(((1/100)*F28)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="78" t="e">
+        <f>SUM(E28/F28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" s="79" t="e">
+        <f>IF(L28=0,I28,I28+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="80" t="e">
+        <f>ROUND(J28,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" s="76" t="e">
+        <f>MOD(E28,F28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="80" t="e">
+        <f>K28&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" s="81" t="e">
+        <f>IF(MOD(E28,F28)&gt;1,MOD(E28,F28),F28)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="68" t="str">
+        <f>TEXT(ROW(A21),"000")</f>
+        <v>021</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="75">
+        <v>70000000</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="76" t="e">
+        <f>SUM(((1/100)*F29)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="78" t="e">
+        <f>SUM(E29/F29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="79" t="e">
+        <f>IF(L29=0,I29,I29+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="80" t="e">
+        <f>ROUND(J29,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="76" t="e">
+        <f>MOD(E29,F29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="80" t="e">
+        <f>K29&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="81" t="e">
+        <f>IF(MOD(E29,F29)&gt;1,MOD(E29,F29),F29)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="68" t="str">
+        <f>TEXT(ROW(A22),"000")</f>
+        <v>022</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="75">
+        <v>25000000</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="76" t="e">
+        <f>SUM(((1/100)*F30)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="78" t="e">
+        <f>SUM(E30/F30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="79" t="e">
+        <f>IF(L30=0,I30,I30+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="80" t="e">
+        <f>ROUND(J30,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="76" t="e">
+        <f>MOD(E30,F30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="80" t="e">
+        <f>K30&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="81" t="e">
+        <f>IF(MOD(E30,F30)&gt;1,MOD(E30,F30),F30)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="68" t="str">
+        <f>TEXT(ROW(A23),"000")</f>
+        <v>023</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="75">
+        <v>25000000</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="76" t="e">
+        <f>SUM(((1/100)*F31)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="78" t="e">
+        <f>SUM(E31/F31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="79" t="e">
+        <f>IF(L31=0,I31,I31+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="80" t="e">
+        <f>ROUND(J31,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="76" t="e">
+        <f>MOD(E31,F31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="80" t="e">
+        <f>K31&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="81" t="e">
+        <f>IF(MOD(E31,F31)&gt;1,MOD(E31,F31),F31)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32" s="36" t="str">
+        <f>TEXT(ROW(A24),"000")</f>
+        <v>024</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="38" t="e">
+        <f>SUM(((1/100)*F32)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="40" t="e">
+        <f>SUM(E32/F32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="41" t="e">
+        <f>IF(L32=0,I32,I32+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="42" t="e">
+        <f>ROUND(J32,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="38" t="e">
+        <f>MOD(E32,F32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="42" t="e">
+        <f>K32&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="43" t="e">
+        <f>IF(MOD(E32,F32)&gt;1,MOD(E32,F32),F32)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="36" t="str">
+        <f>TEXT(ROW(A25),"000")</f>
+        <v>025</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="38" t="e">
+        <f>SUM(((1/100)*F33)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="40" t="e">
+        <f>SUM(E33/F33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="41" t="e">
+        <f>IF(L33=0,I33,I33+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="42" t="e">
+        <f>ROUND(J33,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="38" t="e">
+        <f>MOD(E33,F33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="42" t="e">
+        <f>K33&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="43" t="e">
+        <f>IF(MOD(E33,F33)&gt;1,MOD(E33,F33),F33)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="36" t="str">
+        <f>TEXT(ROW(A26),"000")</f>
+        <v>026</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="38" t="e">
+        <f>SUM(((1/100)*F34)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="40" t="e">
+        <f>SUM(E34/F34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" s="41" t="e">
+        <f>IF(L34=0,I34,I34+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="42" t="e">
+        <f>ROUND(J34,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" s="38" t="e">
+        <f>MOD(E34,F34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" s="42" t="e">
+        <f>K34&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" s="43" t="e">
+        <f>IF(MOD(E34,F34)&gt;1,MOD(E34,F34),F34)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="36" t="str">
+        <f>TEXT(ROW(A27),"000")</f>
+        <v>027</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="38" t="e">
+        <f>SUM(((1/100)*F35)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="40" t="e">
+        <f>SUM(E35/F35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="41" t="e">
+        <f>IF(L35=0,I35,I35+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="42" t="e">
+        <f>ROUND(J35,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" s="38" t="e">
+        <f>MOD(E35,F35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" s="42" t="e">
+        <f>K35&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N35" s="43" t="e">
+        <f>IF(MOD(E35,F35)&gt;1,MOD(E35,F35),F35)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="36" t="str">
+        <f>TEXT(ROW(A28),"000")</f>
+        <v>028</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="38" t="e">
+        <f>SUM(((1/100)*F36)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="40" t="e">
+        <f>SUM(E36/F36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J36" s="41" t="e">
+        <f>IF(L36=0,I36,I36+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="42" t="e">
+        <f>ROUND(J36,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" s="38" t="e">
+        <f>MOD(E36,F36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" s="42" t="e">
+        <f>K36&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="43" t="e">
+        <f>IF(MOD(E36,F36)&gt;1,MOD(E36,F36),F36)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="36" t="str">
+        <f>TEXT(ROW(A29),"000")</f>
+        <v>029</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="38" t="e">
+        <f>SUM(((1/100)*F37)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="40" t="e">
+        <f>SUM(E37/F37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J37" s="41" t="e">
+        <f>IF(L37=0,I37,I37+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="42" t="e">
+        <f>ROUND(J37,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" s="38" t="e">
+        <f>MOD(E37,F37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" s="42" t="e">
+        <f>K37&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" s="43" t="e">
+        <f>IF(MOD(E37,F37)&gt;1,MOD(E37,F37),F37)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="str">
+        <f>TEXT(ROW(A30),"000")</f>
+        <v>030</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="38" t="e">
+        <f>SUM(((1/100)*F38)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="40" t="e">
+        <f>SUM(E38/F38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J38" s="41" t="e">
+        <f>IF(L38=0,I38,I38+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="42" t="e">
+        <f>ROUND(J38,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L38" s="38" t="e">
+        <f>MOD(E38,F38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" s="42" t="e">
+        <f>K38&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N38" s="43" t="e">
+        <f>IF(MOD(E38,F38)&gt;1,MOD(E38,F38),F38)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="36" t="str">
+        <f>TEXT(ROW(A31),"000")</f>
+        <v>031</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="38" t="e">
+        <f>SUM(((1/100)*F39)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="40" t="e">
+        <f>SUM(E39/F39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J39" s="41" t="e">
+        <f>IF(L39=0,I39,I39+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="42" t="e">
+        <f>ROUND(J39,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L39" s="38" t="e">
+        <f>MOD(E39,F39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" s="42" t="e">
+        <f>K39&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N39" s="43" t="e">
+        <f>IF(MOD(E39,F39)&gt;1,MOD(E39,F39),F39)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="71"/>
+      <c r="C40" s="36" t="str">
+        <f>TEXT(ROW(A32),"000")</f>
+        <v>032</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="38" t="e">
+        <f>SUM(((1/100)*F40)*1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="40" t="e">
+        <f>SUM(E40/F40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J40" s="41" t="e">
+        <f>IF(L40=0,I40,I40+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="42" t="e">
+        <f>ROUND(J40,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L40" s="38" t="e">
+        <f>MOD(E40,F40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" s="42" t="e">
+        <f>K40&amp;" "&amp;"Bulan"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N40" s="43" t="e">
+        <f>IF(MOD(E40,F40)&gt;1,MOD(E40,F40),F40)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:N19"/>
+  <autoFilter ref="C8:N8">
+    <sortState ref="C9:N40">
+      <sortCondition ref="H8"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C5:N5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F7 H7:I7 I8:I19 H8:H9">
-    <cfRule type="expression" dxfId="152" priority="253">
+  <conditionalFormatting sqref="D10:F10 H10:I10 I11:I22 H11">
+    <cfRule type="expression" dxfId="341" priority="343">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="254">
+    <cfRule type="expression" dxfId="340" priority="344">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="255">
-      <formula>$O7="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="256">
-      <formula>$N7="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="257">
-      <formula>$L7="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="258">
+    <cfRule type="expression" dxfId="339" priority="345">
+      <formula>$O10="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="346">
+      <formula>$N10="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="347">
+      <formula>$L10="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="348">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="259">
-      <formula>$P7="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="260">
-      <formula>$Q7="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="261">
+    <cfRule type="expression" dxfId="335" priority="349">
+      <formula>$P10="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="350">
+      <formula>$Q10="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="351">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F9">
-    <cfRule type="expression" dxfId="143" priority="82">
+  <conditionalFormatting sqref="D11:F11">
+    <cfRule type="expression" dxfId="332" priority="172">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="83">
+    <cfRule type="expression" dxfId="331" priority="173">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="84">
-      <formula>$O8="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="85">
-      <formula>$N8="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="86">
-      <formula>$L8="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="87">
+    <cfRule type="expression" dxfId="330" priority="174">
+      <formula>$O11="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="175">
+      <formula>$N11="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="176">
+      <formula>$L11="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="177">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="88">
-      <formula>$P8="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="89">
-      <formula>$Q8="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="90">
+    <cfRule type="expression" dxfId="326" priority="178">
+      <formula>$P11="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="179">
+      <formula>$Q11="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="180">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F6 H6:I6 K6:K19 M6:M19">
-    <cfRule type="expression" dxfId="134" priority="262">
+  <conditionalFormatting sqref="D9:F9 H9:I9 K9:K22 M9:M22">
+    <cfRule type="expression" dxfId="323" priority="352">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="263">
+    <cfRule type="expression" dxfId="322" priority="353">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="264">
-      <formula>$O6="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="265">
-      <formula>$N6="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="266">
-      <formula>$L6="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="267">
-      <formula>$J6="JT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="268">
-      <formula>$P6="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="269">
-      <formula>$Q6="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="270">
+    <cfRule type="expression" dxfId="321" priority="354">
+      <formula>$O9="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="355">
+      <formula>$N9="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="356">
+      <formula>$L9="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="357">
+      <formula>$J9="JT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="358">
+      <formula>$P9="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="359">
+      <formula>$Q9="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="360">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:F11 H11:H13">
-    <cfRule type="expression" dxfId="125" priority="55">
+  <conditionalFormatting sqref="D12:F22">
+    <cfRule type="expression" dxfId="161" priority="82">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="56">
+    <cfRule type="expression" dxfId="160" priority="83">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="57">
-      <formula>$O11="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="58">
-      <formula>$N11="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="59">
-      <formula>$L11="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="60">
+    <cfRule type="expression" dxfId="159" priority="84">
+      <formula>$O12="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="85">
+      <formula>$N12="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="86">
+      <formula>$L12="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="87">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="61">
-      <formula>$P11="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="62">
-      <formula>$Q11="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="63">
+    <cfRule type="expression" dxfId="155" priority="88">
+      <formula>$P12="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="89">
+      <formula>$Q12="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="90">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:F13">
-    <cfRule type="expression" dxfId="116" priority="46">
+  <conditionalFormatting sqref="H12:H22">
+    <cfRule type="expression" dxfId="152" priority="73">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="47">
+    <cfRule type="expression" dxfId="151" priority="74">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="48">
+    <cfRule type="expression" dxfId="150" priority="75">
       <formula>$O12="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="49">
+    <cfRule type="expression" dxfId="149" priority="76">
       <formula>$N12="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="50">
+    <cfRule type="expression" dxfId="148" priority="77">
       <formula>$L12="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="51">
+    <cfRule type="expression" dxfId="147" priority="78">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="52">
+    <cfRule type="expression" dxfId="146" priority="79">
       <formula>$P12="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="53">
+    <cfRule type="expression" dxfId="145" priority="80">
       <formula>$Q12="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="54">
+    <cfRule type="expression" dxfId="144" priority="81">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:F10 H10">
-    <cfRule type="expression" dxfId="107" priority="64">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="143" priority="55">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="65">
+    <cfRule type="expression" dxfId="142" priority="56">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="66">
-      <formula>$O10="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="67">
-      <formula>$N10="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="68">
-      <formula>$L10="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="69">
-      <formula>$J10="JT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="70">
-      <formula>$P10="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="71">
-      <formula>$Q10="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="72">
+    <cfRule type="expression" dxfId="141" priority="57">
+      <formula>$O23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="58">
+      <formula>$N23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="59">
+      <formula>$L23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="60">
+      <formula>#REF!="JT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="61">
+      <formula>$P23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="62">
+      <formula>$Q23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="63">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:F15 H15:H17">
-    <cfRule type="expression" dxfId="98" priority="28">
+  <conditionalFormatting sqref="K23 M23">
+    <cfRule type="expression" dxfId="125" priority="64">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="29">
+    <cfRule type="expression" dxfId="124" priority="65">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="30">
-      <formula>$O15="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="31">
-      <formula>$N15="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="32">
-      <formula>$L15="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="33">
+    <cfRule type="expression" dxfId="123" priority="66">
+      <formula>$O23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="67">
+      <formula>$N23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="68">
+      <formula>$L23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="69">
+      <formula>$J23="JT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="70">
+      <formula>$P23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="71">
+      <formula>$Q23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="72">
+      <formula>#REF!="Belum"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:F23">
+    <cfRule type="expression" dxfId="107" priority="46">
+      <formula>#REF!="Sudah"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="47">
+      <formula>#REF!="-"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="48">
+      <formula>$O23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="49">
+      <formula>$N23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="50">
+      <formula>$L23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="51">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="34">
-      <formula>$P15="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="35">
-      <formula>$Q15="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="36">
+    <cfRule type="expression" dxfId="101" priority="52">
+      <formula>$P23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="53">
+      <formula>$Q23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="54">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:F17">
-    <cfRule type="expression" dxfId="89" priority="19">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="89" priority="37">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="20">
+    <cfRule type="expression" dxfId="88" priority="38">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="21">
-      <formula>$O16="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="22">
-      <formula>$N16="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23">
-      <formula>$L16="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="24">
+    <cfRule type="expression" dxfId="87" priority="39">
+      <formula>$O23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="40">
+      <formula>$N23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="41">
+      <formula>$L23="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="42">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="25">
-      <formula>$P16="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="26">
-      <formula>$Q16="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="27">
+    <cfRule type="expression" dxfId="83" priority="43">
+      <formula>$P23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="44">
+      <formula>$Q23="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="45">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:F14 H14">
-    <cfRule type="expression" dxfId="80" priority="37">
+  <conditionalFormatting sqref="I24:I40">
+    <cfRule type="expression" dxfId="71" priority="19">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="38">
+    <cfRule type="expression" dxfId="70" priority="20">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="39">
-      <formula>$O14="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="40">
-      <formula>$N14="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="41">
-      <formula>$L14="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="42">
-      <formula>$J14="JT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="43">
-      <formula>$P14="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="44">
-      <formula>$Q14="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="45">
+    <cfRule type="expression" dxfId="69" priority="21">
+      <formula>$O24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="22">
+      <formula>$N24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="23">
+      <formula>$L24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="24">
+      <formula>#REF!="JT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="25">
+      <formula>$P24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="26">
+      <formula>$Q24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="27">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="expression" dxfId="71" priority="10">
+  <conditionalFormatting sqref="K24:K40 M24:M40">
+    <cfRule type="expression" dxfId="53" priority="28">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="52" priority="29">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="12">
-      <formula>$O18="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="13">
-      <formula>$N18="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="14">
-      <formula>$L18="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="15">
+    <cfRule type="expression" dxfId="51" priority="30">
+      <formula>$O24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="31">
+      <formula>$N24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="32">
+      <formula>$L24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="33">
+      <formula>$J24="JT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="34">
+      <formula>$P24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="35">
+      <formula>$Q24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="36">
+      <formula>#REF!="Belum"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:F40">
+    <cfRule type="expression" dxfId="35" priority="10">
+      <formula>#REF!="Sudah"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="11">
+      <formula>#REF!="-"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="12">
+      <formula>$O24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="13">
+      <formula>$N24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>$L24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="15">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="16">
-      <formula>$P18="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="17">
-      <formula>$Q18="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="18">
+    <cfRule type="expression" dxfId="29" priority="16">
+      <formula>$P24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>$Q24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:F19">
-    <cfRule type="expression" dxfId="62" priority="1">
+  <conditionalFormatting sqref="H24:H40">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>#REF!="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>#REF!="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3">
-      <formula>$O18="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="4">
-      <formula>$N18="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="5">
-      <formula>$L18="MT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="6">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>$O24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>$N24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>$L24="MT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>#REF!="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="7">
-      <formula>$P18="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="8">
-      <formula>$Q18="TMX"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="9">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$P24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$Q24="TMX"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>#REF!="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5242,31 +7776,31 @@
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="27" t="s">
         <v>55</v>
       </c>
       <c r="K5">
@@ -5355,7 +7889,7 @@
       <c r="G6" s="2">
         <v>44827</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="28">
         <f>SUM(D6/E6)</f>
         <v>14.285714285714286</v>
       </c>
@@ -5367,77 +7901,77 @@
         <f>IF(I6=0,H6,H6+1)</f>
         <v>15.285714285714286</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="31">
         <f>IF(K5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="31">
         <f>IF(L5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="31">
         <f>IF(M5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="31">
         <f>IF(N5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="31">
         <f>IF(O5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="31">
         <f>IF(P5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="31">
         <f>IF(Q5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="31">
         <f>IF(R5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="31">
         <f>IF(S5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="31">
         <f>IF(T5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="U6" s="51">
+      <c r="U6" s="31">
         <f>IF(U5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="V6" s="51">
+      <c r="V6" s="31">
         <f>IF(V5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="W6" s="51">
+      <c r="W6" s="31">
         <f>IF(W5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="31">
         <f>IF(X5&gt;=H6,I6,E6)</f>
         <v>2100000</v>
       </c>
-      <c r="Y6" s="51">
+      <c r="Y6" s="31">
         <f>IF(Y5&gt;=H6,I6,E6)</f>
         <v>600000</v>
       </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B18" si="0">TEXT(ROW(A4),"000")</f>
         <v>004</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="32">
         <f>IF(K4&gt;J8,"-",1)</f>
         <v>1</v>
       </c>
@@ -5465,14 +7999,14 @@
         <f>IF((P7+1)&gt;J8,"-",P7+1)</f>
         <v>-</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
@@ -5495,7 +8029,7 @@
       <c r="G8" s="2">
         <v>44827</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="28">
         <f>SUM(D8/E8)</f>
         <v>6</v>
       </c>
@@ -5507,42 +8041,42 @@
         <f>IF(I8=0,H8,H8+1)</f>
         <v>6</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="31">
         <f>IF(K7&gt;=H8,I8,E8)</f>
         <v>5000000</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="31">
         <f>IF(L7&gt;=H8,I8,E8)</f>
         <v>5000000</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="31">
         <f>IF(M7&gt;=H8,I8,E8)</f>
         <v>5000000</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="31">
         <f>IF(N7&gt;=H8,I8,E8)</f>
         <v>5000000</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="31">
         <f>IF(O7&gt;=H8,I8,E8)</f>
         <v>5000000</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="31">
         <f>IF(P7&gt;=H8,I8,E8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="31">
         <f>IF(Q7&gt;=H8,I8,E8)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
@@ -5557,21 +8091,21 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
@@ -5586,21 +8120,21 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
@@ -5615,21 +8149,21 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
@@ -5644,21 +8178,21 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
@@ -5673,21 +8207,21 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="str">
@@ -5702,21 +8236,21 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
@@ -5731,21 +8265,21 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
@@ -5760,21 +8294,21 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
@@ -5789,21 +8323,21 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
@@ -5818,21 +8352,21 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -5844,21 +8378,21 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F21"/>
@@ -5867,176 +8401,176 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="53" priority="91">
+    <cfRule type="expression" dxfId="242" priority="91">
       <formula>$J6="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="92">
+    <cfRule type="expression" dxfId="241" priority="92">
       <formula>$J6="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="93">
+    <cfRule type="expression" dxfId="240" priority="93">
       <formula>$N6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="94">
+    <cfRule type="expression" dxfId="239" priority="94">
       <formula>$M6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="95">
+    <cfRule type="expression" dxfId="238" priority="95">
       <formula>$L6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="96">
+    <cfRule type="expression" dxfId="237" priority="96">
       <formula>$K6="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="97">
+    <cfRule type="expression" dxfId="236" priority="97">
       <formula>$O6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="98">
+    <cfRule type="expression" dxfId="235" priority="98">
       <formula>$P6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="99">
+    <cfRule type="expression" dxfId="234" priority="99">
       <formula>$J6="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="44" priority="82">
+    <cfRule type="expression" dxfId="233" priority="82">
       <formula>$J6="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="83">
+    <cfRule type="expression" dxfId="232" priority="83">
       <formula>$J6="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="84">
+    <cfRule type="expression" dxfId="231" priority="84">
       <formula>$N6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="85">
+    <cfRule type="expression" dxfId="230" priority="85">
       <formula>$M6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="86">
+    <cfRule type="expression" dxfId="229" priority="86">
       <formula>$L6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="87">
+    <cfRule type="expression" dxfId="228" priority="87">
       <formula>$K6="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="88">
+    <cfRule type="expression" dxfId="227" priority="88">
       <formula>$O6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="89">
+    <cfRule type="expression" dxfId="226" priority="89">
       <formula>$P6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="90">
+    <cfRule type="expression" dxfId="225" priority="90">
       <formula>$J6="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="35" priority="73">
+    <cfRule type="expression" dxfId="224" priority="73">
       <formula>$J6="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="74">
+    <cfRule type="expression" dxfId="223" priority="74">
       <formula>$J6="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    <cfRule type="expression" dxfId="222" priority="75">
       <formula>$N6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="76">
+    <cfRule type="expression" dxfId="221" priority="76">
       <formula>$M6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="77">
+    <cfRule type="expression" dxfId="220" priority="77">
       <formula>$L6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="78">
+    <cfRule type="expression" dxfId="219" priority="78">
       <formula>$K6="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="79">
+    <cfRule type="expression" dxfId="218" priority="79">
       <formula>$O6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="80">
+    <cfRule type="expression" dxfId="217" priority="80">
       <formula>$P6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="81">
+    <cfRule type="expression" dxfId="216" priority="81">
       <formula>$J6="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="26" priority="64">
+    <cfRule type="expression" dxfId="215" priority="64">
       <formula>$J6="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="65">
+    <cfRule type="expression" dxfId="214" priority="65">
       <formula>$J6="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66">
+    <cfRule type="expression" dxfId="213" priority="66">
       <formula>$N6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="67">
+    <cfRule type="expression" dxfId="212" priority="67">
       <formula>$M6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="68">
+    <cfRule type="expression" dxfId="211" priority="68">
       <formula>$L6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="69">
+    <cfRule type="expression" dxfId="210" priority="69">
       <formula>$K6="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="70">
+    <cfRule type="expression" dxfId="209" priority="70">
       <formula>$O6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="71">
+    <cfRule type="expression" dxfId="208" priority="71">
       <formula>$P6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="72">
+    <cfRule type="expression" dxfId="207" priority="72">
       <formula>$J6="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="17" priority="55">
+    <cfRule type="expression" dxfId="206" priority="55">
       <formula>$J6="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="56">
+    <cfRule type="expression" dxfId="205" priority="56">
       <formula>$J6="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="57">
+    <cfRule type="expression" dxfId="204" priority="57">
       <formula>$N6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="58">
+    <cfRule type="expression" dxfId="203" priority="58">
       <formula>$M6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="59">
+    <cfRule type="expression" dxfId="202" priority="59">
       <formula>$L6="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
+    <cfRule type="expression" dxfId="201" priority="60">
       <formula>$K6="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="61">
+    <cfRule type="expression" dxfId="200" priority="61">
       <formula>$O6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="62">
+    <cfRule type="expression" dxfId="199" priority="62">
       <formula>$P6="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="63">
+    <cfRule type="expression" dxfId="198" priority="63">
       <formula>$J6="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:E8 G8:H8">
-    <cfRule type="expression" dxfId="8" priority="100">
+    <cfRule type="expression" dxfId="197" priority="100">
       <formula>$J8="Sudah"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="101">
+    <cfRule type="expression" dxfId="196" priority="101">
       <formula>$J8="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="102">
+    <cfRule type="expression" dxfId="195" priority="102">
       <formula>$N7="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="103">
+    <cfRule type="expression" dxfId="194" priority="103">
       <formula>$M7="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="104">
+    <cfRule type="expression" dxfId="193" priority="104">
       <formula>$L7="MT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="105">
+    <cfRule type="expression" dxfId="192" priority="105">
       <formula>$K7="JT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="106">
+    <cfRule type="expression" dxfId="191" priority="106">
       <formula>$O7="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="107">
+    <cfRule type="expression" dxfId="190" priority="107">
       <formula>$P7="TMX"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="108">
+    <cfRule type="expression" dxfId="189" priority="108">
       <formula>$J8="Belum"</formula>
     </cfRule>
   </conditionalFormatting>
